--- a/Hardware/24V Multiphase Buck/Research and Documentation/Datasheet Calculations.xlsx
+++ b/Hardware/24V Multiphase Buck/Research and Documentation/Datasheet Calculations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofwaterloo-my.sharepoint.com/personal/laphartf_uwaterloo_ca/Documents/UWRT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Project-Portfolio\Hardware\24V Multiphase Buck\Research and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1099" documentId="8_{957FD4BD-CF63-4F05-A1F9-66A7AC4540D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D36EB5FF-1B5C-4E3D-8A3A-42F973A445F5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D78688F-D1B3-4615-B915-4C10C6342A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{966D6099-656F-453C-A914-3EE759F28358}"/>
+    <workbookView xWindow="-6348" yWindow="1056" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{966D6099-656F-453C-A914-3EE759F28358}"/>
   </bookViews>
   <sheets>
     <sheet name="Rework" sheetId="2" r:id="rId1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="136">
   <si>
     <t>Frequency Selection</t>
   </si>
@@ -1152,6 +1150,12 @@
       </rPr>
       <t>HS_Switching</t>
     </r>
+  </si>
+  <si>
+    <t>Max. Min ON Time</t>
+  </si>
+  <si>
+    <t>Common Mistakes</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1367,11 +1371,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1412,6 +1427,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1732,19 +1751,19 @@
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1756,7 +1775,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1777,7 +1796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1789,7 +1808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1806,7 +1825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1836,7 +1855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1856,7 +1875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1882,7 +1901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1902,7 +1921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
@@ -1927,7 +1946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1958,7 +1977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
@@ -1977,7 +1996,7 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
@@ -2004,7 +2023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
@@ -2035,7 +2054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
@@ -2067,7 +2086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F18" s="4" t="s">
         <v>44</v>
       </c>
@@ -2088,7 +2107,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>46</v>
       </c>
@@ -2114,7 +2133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
@@ -2130,7 +2149,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -2141,7 +2160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>53</v>
       </c>
@@ -2158,7 +2177,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>55</v>
       </c>
@@ -2179,7 +2198,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F24" s="4" t="s">
         <v>50</v>
       </c>
@@ -2191,7 +2210,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>57</v>
       </c>
@@ -2207,7 +2226,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
@@ -2222,7 +2241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>61</v>
       </c>
@@ -2241,7 +2260,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>64</v>
       </c>
@@ -2262,7 +2281,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -2284,7 +2303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>53</v>
       </c>
@@ -2305,7 +2324,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>55</v>
       </c>
@@ -2327,7 +2346,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F32" s="4" t="s">
         <v>70</v>
       </c>
@@ -2339,7 +2358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>71</v>
       </c>
@@ -2357,7 +2376,7 @@
       </c>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>73</v>
       </c>
@@ -2370,7 +2389,7 @@
       <c r="J34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>74</v>
       </c>
@@ -2383,7 +2402,7 @@
       </c>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F36" s="8" t="s">
         <v>76</v>
       </c>
@@ -2391,7 +2410,7 @@
       <c r="H36" s="3"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>77</v>
       </c>
@@ -2411,7 +2430,7 @@
       </c>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>33</v>
       </c>
@@ -2430,7 +2449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>81</v>
       </c>
@@ -2443,7 +2462,7 @@
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>83</v>
       </c>
@@ -2465,7 +2484,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>86</v>
       </c>
@@ -2476,7 +2495,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>87</v>
       </c>
@@ -2495,7 +2514,7 @@
       </c>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>90</v>
       </c>
@@ -2515,7 +2534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>92</v>
       </c>
@@ -2536,7 +2555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>94</v>
       </c>
@@ -2555,7 +2574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>96</v>
       </c>
@@ -2575,7 +2594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>98</v>
       </c>
@@ -2594,7 +2613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>101</v>
       </c>
@@ -2613,17 +2632,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F51" s="8" t="s">
         <v>104</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F52" s="4" t="s">
         <v>106</v>
       </c>
@@ -2635,7 +2654,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F53" s="24" t="s">
         <v>108</v>
       </c>
@@ -2646,7 +2665,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F54" s="24" t="s">
         <v>110</v>
       </c>
@@ -2657,7 +2676,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F55" s="26" t="s">
         <v>112</v>
       </c>
@@ -2683,19 +2702,19 @@
       <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -2707,7 +2726,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
@@ -2729,7 +2748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
@@ -2741,7 +2760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
@@ -2758,7 +2777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
@@ -2788,7 +2807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
@@ -2808,7 +2827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -2834,7 +2853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
@@ -2854,7 +2873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
@@ -2879,7 +2898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
@@ -2910,7 +2929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
@@ -2929,7 +2948,7 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
@@ -2956,7 +2975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
@@ -2987,7 +3006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
@@ -3019,7 +3038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F18" s="4" t="s">
         <v>44</v>
       </c>
@@ -3040,7 +3059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>46</v>
       </c>
@@ -3066,7 +3085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
@@ -3082,7 +3101,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -3093,7 +3112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>53</v>
       </c>
@@ -3110,7 +3129,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>55</v>
       </c>
@@ -3131,7 +3150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F24" s="4" t="s">
         <v>50</v>
       </c>
@@ -3143,7 +3162,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>57</v>
       </c>
@@ -3159,7 +3178,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
@@ -3174,7 +3193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>61</v>
       </c>
@@ -3193,7 +3212,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>64</v>
       </c>
@@ -3214,7 +3233,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -3236,7 +3255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>53</v>
       </c>
@@ -3257,7 +3276,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>55</v>
       </c>
@@ -3279,7 +3298,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F32" s="4" t="s">
         <v>70</v>
       </c>
@@ -3291,7 +3310,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>71</v>
       </c>
@@ -3309,7 +3328,7 @@
       </c>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>73</v>
       </c>
@@ -3322,7 +3341,7 @@
       <c r="J34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>74</v>
       </c>
@@ -3340,7 +3359,7 @@
       <c r="H35" s="31"/>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F36" s="24" t="s">
         <v>79</v>
       </c>
@@ -3353,7 +3372,7 @@
       </c>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>77</v>
       </c>
@@ -3372,7 +3391,7 @@
       </c>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>33</v>
       </c>
@@ -3387,7 +3406,7 @@
       <c r="G38" s="34"/>
       <c r="H38" s="33"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>81</v>
       </c>
@@ -3406,7 +3425,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>83</v>
       </c>
@@ -3418,7 +3437,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>86</v>
       </c>
@@ -3434,7 +3453,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>87</v>
       </c>
@@ -3455,7 +3474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>90</v>
       </c>
@@ -3475,7 +3494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>92</v>
       </c>
@@ -3496,7 +3515,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>94</v>
       </c>
@@ -3515,7 +3534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>96</v>
       </c>
@@ -3536,7 +3555,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>98</v>
       </c>
@@ -3556,7 +3575,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>101</v>
       </c>
@@ -3576,7 +3595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F49" s="35" t="s">
         <v>131</v>
       </c>
@@ -3587,7 +3606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>104</v>
       </c>
@@ -3603,7 +3622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>106</v>
       </c>
@@ -3615,7 +3634,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="24" t="s">
         <v>108</v>
       </c>
@@ -3626,7 +3645,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="24" t="s">
         <v>110</v>
       </c>
@@ -3642,7 +3661,7 @@
       <c r="G53" s="9"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="26" t="s">
         <v>112</v>
       </c>
@@ -3664,7 +3683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F55" s="4" t="s">
         <v>121</v>
       </c>
@@ -3676,7 +3695,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>126</v>
       </c>
@@ -3693,7 +3712,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>106</v>
       </c>
@@ -3715,7 +3734,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="24" t="s">
         <v>108</v>
       </c>
@@ -3736,7 +3755,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="24" t="s">
         <v>110</v>
       </c>
@@ -3757,7 +3776,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="26" t="s">
         <v>112</v>
       </c>
@@ -3769,14 +3788,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F61" s="8" t="s">
         <v>125</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F62" s="4" t="s">
         <v>117</v>
       </c>
@@ -3788,7 +3807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F63" s="4" t="s">
         <v>121</v>
       </c>
@@ -3800,7 +3819,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F64" s="4" t="s">
         <v>114</v>
       </c>
@@ -3812,7 +3831,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F65" s="4" t="s">
         <v>116</v>
       </c>
@@ -3824,7 +3843,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F66" s="4" t="s">
         <v>120</v>
       </c>
@@ -3836,7 +3855,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F67" s="6" t="s">
         <v>124</v>
       </c>
@@ -3848,7 +3867,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:9" x14ac:dyDescent="0.3">
       <c r="I69" s="17"/>
     </row>
   </sheetData>
@@ -3861,23 +3880,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE741F53-2FDA-44F2-913C-2CB447384AA7}">
   <dimension ref="B4:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -3889,7 +3908,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
@@ -3911,7 +3930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
@@ -3923,7 +3942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
@@ -3940,7 +3959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
@@ -3970,7 +3989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
@@ -3990,7 +4009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -4016,7 +4035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
@@ -4036,7 +4055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
@@ -4061,7 +4080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
@@ -4092,7 +4111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
@@ -4111,13 +4130,13 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="11">
         <f>K18</f>
-        <v>750000</v>
+        <v>2977667.493796526</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>35</v>
@@ -4138,13 +4157,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C16">
         <f>((K11+K12*(K15+C43))/(1-C15*C13))+(K12*K15*K16)</f>
-        <v>26.655669135164832</v>
+        <v>37.742776886872591</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>9</v>
@@ -4157,6 +4176,10 @@
       </c>
       <c r="H16" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="I16" s="17">
+        <f>I17+I18</f>
+        <v>3.8420590900967597</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>40</v>
@@ -4169,13 +4192,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="10">
         <f>K11/(K18*C14)</f>
-        <v>206.45161290322582</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>9</v>
@@ -4190,6 +4213,10 @@
       <c r="H17" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="I17" s="17">
+        <f>I19*C42</f>
+        <v>3.8295590900967595</v>
+      </c>
       <c r="J17" s="14" t="s">
         <v>43</v>
       </c>
@@ -4201,7 +4228,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F18" s="4" t="s">
         <v>44</v>
       </c>
@@ -4212,17 +4239,22 @@
       <c r="H18" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="I18" s="17">
+        <f>C42/(8*K17*G20)</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
       <c r="J18" s="14" t="s">
         <v>45</v>
       </c>
       <c r="K18" s="2">
-        <v>750000</v>
+        <f>K11/(K10*K20)</f>
+        <v>2977667.493796526</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>46</v>
       </c>
@@ -4238,6 +4270,9 @@
       <c r="H19" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="I19" s="17">
+        <v>0.6</v>
+      </c>
       <c r="J19" s="18" t="s">
         <v>107</v>
       </c>
@@ -4248,7 +4283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
@@ -4263,8 +4298,18 @@
       <c r="H20" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J20" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20">
+        <f>155*10^-9</f>
+        <v>1.55E-7</v>
+      </c>
+      <c r="L20" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -4275,7 +4320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>53</v>
       </c>
@@ -4292,7 +4337,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>55</v>
       </c>
@@ -4312,8 +4357,11 @@
       <c r="H23" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J23" s="42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F24" s="4" t="s">
         <v>50</v>
       </c>
@@ -4324,8 +4372,18 @@
       <c r="H24" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J24" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24">
+        <f>(K10-K11)/(0.3*K13)*K11/(K10*K17)</f>
+        <v>7.9427892239043906E-6</v>
+      </c>
+      <c r="L24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>57</v>
       </c>
@@ -4341,7 +4399,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
@@ -4356,7 +4414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>61</v>
       </c>
@@ -4375,7 +4433,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>64</v>
       </c>
@@ -4396,7 +4454,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -4418,7 +4476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>53</v>
       </c>
@@ -4439,7 +4497,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>55</v>
       </c>
@@ -4461,7 +4519,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F32" s="4" t="s">
         <v>70</v>
       </c>
@@ -4473,7 +4531,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>71</v>
       </c>
@@ -4491,7 +4549,7 @@
       </c>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>73</v>
       </c>
@@ -4504,7 +4562,7 @@
       <c r="J34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>74</v>
       </c>
@@ -4522,7 +4580,7 @@
       <c r="H35" s="31"/>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F36" s="24" t="s">
         <v>79</v>
       </c>
@@ -4535,7 +4593,7 @@
       </c>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>77</v>
       </c>
@@ -4554,7 +4612,7 @@
       </c>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>33</v>
       </c>
@@ -4569,7 +4627,7 @@
       <c r="G38" s="34"/>
       <c r="H38" s="33"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>81</v>
       </c>
@@ -4588,7 +4646,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>83</v>
       </c>
@@ -4600,7 +4658,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>86</v>
       </c>
@@ -4616,7 +4674,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>87</v>
       </c>
@@ -4637,7 +4695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>90</v>
       </c>
@@ -4657,7 +4715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>92</v>
       </c>
@@ -4678,7 +4736,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>94</v>
       </c>
@@ -4697,7 +4755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>96</v>
       </c>
@@ -4718,7 +4776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>98</v>
       </c>
@@ -4738,7 +4796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>101</v>
       </c>
@@ -4758,7 +4816,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F49" s="35" t="s">
         <v>131</v>
       </c>
@@ -4769,7 +4827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>104</v>
       </c>
@@ -4785,7 +4843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>106</v>
       </c>
@@ -4797,7 +4855,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="24" t="s">
         <v>108</v>
       </c>
@@ -4808,7 +4866,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="24" t="s">
         <v>110</v>
       </c>
@@ -4824,7 +4882,7 @@
       <c r="G53" s="9"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="26" t="s">
         <v>112</v>
       </c>
@@ -4846,7 +4904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F55" s="4" t="s">
         <v>121</v>
       </c>
@@ -4858,7 +4916,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>126</v>
       </c>
@@ -4875,7 +4933,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>106</v>
       </c>
@@ -4897,7 +4955,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="24" t="s">
         <v>108</v>
       </c>
@@ -4918,7 +4976,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="24" t="s">
         <v>110</v>
       </c>
@@ -4939,7 +4997,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="26" t="s">
         <v>112</v>
       </c>
@@ -4951,14 +5009,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F61" s="8" t="s">
         <v>125</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F62" s="4" t="s">
         <v>117</v>
       </c>
@@ -4970,7 +5028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F63" s="4" t="s">
         <v>121</v>
       </c>
@@ -4982,7 +5040,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F64" s="4" t="s">
         <v>114</v>
       </c>
@@ -4994,7 +5052,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F65" s="4" t="s">
         <v>116</v>
       </c>
@@ -5006,7 +5064,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F66" s="4" t="s">
         <v>120</v>
       </c>
@@ -5018,7 +5076,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F67" s="6" t="s">
         <v>124</v>
       </c>
@@ -5030,7 +5088,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:9" x14ac:dyDescent="0.3">
       <c r="I69" s="17"/>
     </row>
   </sheetData>
@@ -5047,19 +5105,19 @@
       <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -5071,7 +5129,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
@@ -5093,7 +5151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
@@ -5105,7 +5163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
@@ -5122,7 +5180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
@@ -5152,7 +5210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
@@ -5172,7 +5230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -5198,7 +5256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
@@ -5218,7 +5276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
@@ -5243,7 +5301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
@@ -5274,7 +5332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
@@ -5293,7 +5351,7 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
@@ -5320,7 +5378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
@@ -5351,7 +5409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
@@ -5383,7 +5441,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F18" s="4" t="s">
         <v>44</v>
       </c>
@@ -5404,7 +5462,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>46</v>
       </c>
@@ -5430,7 +5488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
@@ -5446,7 +5504,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -5457,7 +5515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>53</v>
       </c>
@@ -5474,7 +5532,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>55</v>
       </c>
@@ -5495,7 +5553,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F24" s="4" t="s">
         <v>50</v>
       </c>
@@ -5507,7 +5565,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>57</v>
       </c>
@@ -5523,7 +5581,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
@@ -5538,7 +5596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>61</v>
       </c>
@@ -5557,7 +5615,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>64</v>
       </c>
@@ -5578,7 +5636,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -5600,7 +5658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>53</v>
       </c>
@@ -5621,7 +5679,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>55</v>
       </c>
@@ -5643,7 +5701,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F32" s="4" t="s">
         <v>70</v>
       </c>
@@ -5655,7 +5713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>71</v>
       </c>
@@ -5673,7 +5731,7 @@
       </c>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>73</v>
       </c>
@@ -5686,7 +5744,7 @@
       <c r="J34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>74</v>
       </c>
@@ -5704,7 +5762,7 @@
       <c r="H35" s="31"/>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F36" s="24" t="s">
         <v>79</v>
       </c>
@@ -5717,7 +5775,7 @@
       </c>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>77</v>
       </c>
@@ -5736,7 +5794,7 @@
       </c>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>33</v>
       </c>
@@ -5751,7 +5809,7 @@
       <c r="G38" s="34"/>
       <c r="H38" s="33"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>81</v>
       </c>
@@ -5770,7 +5828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>83</v>
       </c>
@@ -5782,7 +5840,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>86</v>
       </c>
@@ -5798,7 +5856,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>87</v>
       </c>
@@ -5819,7 +5877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>90</v>
       </c>
@@ -5839,7 +5897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>92</v>
       </c>
@@ -5860,7 +5918,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>94</v>
       </c>
@@ -5879,7 +5937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>96</v>
       </c>
@@ -5900,7 +5958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>98</v>
       </c>
@@ -5920,7 +5978,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>101</v>
       </c>
@@ -5940,7 +5998,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F49" s="35" t="s">
         <v>131</v>
       </c>
@@ -5951,7 +6009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>104</v>
       </c>
@@ -5967,7 +6025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>106</v>
       </c>
@@ -5979,7 +6037,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="24" t="s">
         <v>108</v>
       </c>
@@ -5990,7 +6048,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="24" t="s">
         <v>110</v>
       </c>
@@ -6006,7 +6064,7 @@
       <c r="G53" s="9"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="26" t="s">
         <v>112</v>
       </c>
@@ -6028,7 +6086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F55" s="4" t="s">
         <v>121</v>
       </c>
@@ -6040,7 +6098,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>126</v>
       </c>
@@ -6057,7 +6115,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>106</v>
       </c>
@@ -6079,7 +6137,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="24" t="s">
         <v>108</v>
       </c>
@@ -6100,7 +6158,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="24" t="s">
         <v>110</v>
       </c>
@@ -6121,7 +6179,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="26" t="s">
         <v>112</v>
       </c>
@@ -6133,14 +6191,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F61" s="8" t="s">
         <v>125</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F62" s="4" t="s">
         <v>117</v>
       </c>
@@ -6152,7 +6210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F63" s="4" t="s">
         <v>121</v>
       </c>
@@ -6164,7 +6222,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F64" s="4" t="s">
         <v>114</v>
       </c>
@@ -6176,7 +6234,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F65" s="4" t="s">
         <v>116</v>
       </c>
@@ -6188,7 +6246,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F66" s="4" t="s">
         <v>120</v>
       </c>
@@ -6200,7 +6258,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F67" s="6" t="s">
         <v>124</v>
       </c>
@@ -6212,7 +6270,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:9" x14ac:dyDescent="0.3">
       <c r="I69" s="17"/>
     </row>
   </sheetData>
@@ -6229,19 +6287,19 @@
       <selection activeCell="J59" sqref="J59:J60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -6253,7 +6311,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
@@ -6275,7 +6333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
@@ -6287,7 +6345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
@@ -6304,7 +6362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
@@ -6334,7 +6392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
@@ -6354,7 +6412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -6380,7 +6438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
@@ -6400,7 +6458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
@@ -6425,7 +6483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
@@ -6456,7 +6514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6475,7 +6533,7 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
@@ -6502,7 +6560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
@@ -6533,7 +6591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
@@ -6565,7 +6623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F18" s="4" t="s">
         <v>44</v>
       </c>
@@ -6586,7 +6644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>46</v>
       </c>
@@ -6612,7 +6670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
@@ -6628,7 +6686,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -6639,7 +6697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>53</v>
       </c>
@@ -6656,7 +6714,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>55</v>
       </c>
@@ -6677,7 +6735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F24" s="4" t="s">
         <v>50</v>
       </c>
@@ -6689,7 +6747,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>57</v>
       </c>
@@ -6705,7 +6763,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
@@ -6720,7 +6778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>61</v>
       </c>
@@ -6739,7 +6797,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>64</v>
       </c>
@@ -6760,7 +6818,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -6782,7 +6840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>53</v>
       </c>
@@ -6803,7 +6861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>55</v>
       </c>
@@ -6825,7 +6883,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F32" s="4" t="s">
         <v>70</v>
       </c>
@@ -6837,7 +6895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>71</v>
       </c>
@@ -6855,7 +6913,7 @@
       </c>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>73</v>
       </c>
@@ -6868,7 +6926,7 @@
       <c r="J34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>74</v>
       </c>
@@ -6886,7 +6944,7 @@
       <c r="H35" s="31"/>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F36" s="24" t="s">
         <v>79</v>
       </c>
@@ -6899,7 +6957,7 @@
       </c>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>77</v>
       </c>
@@ -6918,7 +6976,7 @@
       </c>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>33</v>
       </c>
@@ -6933,7 +6991,7 @@
       <c r="G38" s="34"/>
       <c r="H38" s="33"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>81</v>
       </c>
@@ -6952,7 +7010,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>83</v>
       </c>
@@ -6964,7 +7022,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>86</v>
       </c>
@@ -6980,7 +7038,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>87</v>
       </c>
@@ -7001,7 +7059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>90</v>
       </c>
@@ -7021,7 +7079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>92</v>
       </c>
@@ -7042,7 +7100,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>94</v>
       </c>
@@ -7061,7 +7119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>96</v>
       </c>
@@ -7082,7 +7140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>98</v>
       </c>
@@ -7102,7 +7160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>101</v>
       </c>
@@ -7122,7 +7180,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F49" s="35" t="s">
         <v>131</v>
       </c>
@@ -7133,7 +7191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>104</v>
       </c>
@@ -7149,7 +7207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>106</v>
       </c>
@@ -7161,7 +7219,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="24" t="s">
         <v>108</v>
       </c>
@@ -7172,7 +7230,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="24" t="s">
         <v>110</v>
       </c>
@@ -7188,7 +7246,7 @@
       <c r="G53" s="9"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="26" t="s">
         <v>112</v>
       </c>
@@ -7210,7 +7268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F55" s="4" t="s">
         <v>121</v>
       </c>
@@ -7222,7 +7280,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>126</v>
       </c>
@@ -7239,7 +7297,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>106</v>
       </c>
@@ -7261,7 +7319,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="24" t="s">
         <v>108</v>
       </c>
@@ -7282,7 +7340,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="24" t="s">
         <v>110</v>
       </c>
@@ -7303,7 +7361,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="26" t="s">
         <v>112</v>
       </c>
@@ -7315,14 +7373,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F61" s="8" t="s">
         <v>125</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F62" s="4" t="s">
         <v>117</v>
       </c>
@@ -7334,7 +7392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F63" s="4" t="s">
         <v>121</v>
       </c>
@@ -7346,7 +7404,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F64" s="4" t="s">
         <v>114</v>
       </c>
@@ -7358,7 +7416,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F65" s="4" t="s">
         <v>116</v>
       </c>
@@ -7370,7 +7428,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F66" s="4" t="s">
         <v>120</v>
       </c>
@@ -7382,7 +7440,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F67" s="6" t="s">
         <v>124</v>
       </c>
@@ -7394,7 +7452,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:9" x14ac:dyDescent="0.3">
       <c r="I69" s="17"/>
     </row>
   </sheetData>
@@ -7411,19 +7469,19 @@
       <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -7435,7 +7493,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
@@ -7457,7 +7515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
@@ -7469,7 +7527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
@@ -7486,7 +7544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
@@ -7516,7 +7574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
@@ -7536,7 +7594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -7562,7 +7620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
@@ -7582,7 +7640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
@@ -7607,7 +7665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
@@ -7638,7 +7696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
@@ -7657,7 +7715,7 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
@@ -7684,7 +7742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
@@ -7715,7 +7773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
@@ -7747,7 +7805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F18" s="4" t="s">
         <v>44</v>
       </c>
@@ -7768,7 +7826,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>46</v>
       </c>
@@ -7794,7 +7852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
@@ -7810,7 +7868,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -7821,7 +7879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>53</v>
       </c>
@@ -7838,7 +7896,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>55</v>
       </c>
@@ -7859,7 +7917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F24" s="4" t="s">
         <v>50</v>
       </c>
@@ -7871,7 +7929,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>57</v>
       </c>
@@ -7887,7 +7945,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
@@ -7902,7 +7960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>61</v>
       </c>
@@ -7921,7 +7979,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>64</v>
       </c>
@@ -7942,7 +8000,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -7964,7 +8022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>53</v>
       </c>
@@ -7985,7 +8043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>55</v>
       </c>
@@ -8007,7 +8065,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F32" s="4" t="s">
         <v>70</v>
       </c>
@@ -8019,7 +8077,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>71</v>
       </c>
@@ -8037,7 +8095,7 @@
       </c>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>73</v>
       </c>
@@ -8050,7 +8108,7 @@
       <c r="J34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>74</v>
       </c>
@@ -8068,7 +8126,7 @@
       <c r="H35" s="31"/>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F36" s="24" t="s">
         <v>79</v>
       </c>
@@ -8081,7 +8139,7 @@
       </c>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>77</v>
       </c>
@@ -8100,7 +8158,7 @@
       </c>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>33</v>
       </c>
@@ -8115,7 +8173,7 @@
       <c r="G38" s="34"/>
       <c r="H38" s="33"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>81</v>
       </c>
@@ -8134,7 +8192,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>83</v>
       </c>
@@ -8146,7 +8204,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>86</v>
       </c>
@@ -8162,7 +8220,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>87</v>
       </c>
@@ -8183,7 +8241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>90</v>
       </c>
@@ -8203,7 +8261,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>92</v>
       </c>
@@ -8224,7 +8282,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>94</v>
       </c>
@@ -8243,7 +8301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>96</v>
       </c>
@@ -8264,7 +8322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>98</v>
       </c>
@@ -8284,7 +8342,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>101</v>
       </c>
@@ -8304,7 +8362,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F49" s="35" t="s">
         <v>131</v>
       </c>
@@ -8315,7 +8373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>104</v>
       </c>
@@ -8331,7 +8389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>106</v>
       </c>
@@ -8343,7 +8401,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="24" t="s">
         <v>108</v>
       </c>
@@ -8354,7 +8412,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="24" t="s">
         <v>110</v>
       </c>
@@ -8370,7 +8428,7 @@
       <c r="G53" s="9"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="26" t="s">
         <v>112</v>
       </c>
@@ -8392,7 +8450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F55" s="4" t="s">
         <v>121</v>
       </c>
@@ -8404,7 +8462,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>126</v>
       </c>
@@ -8421,7 +8479,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>106</v>
       </c>
@@ -8443,7 +8501,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="24" t="s">
         <v>108</v>
       </c>
@@ -8464,7 +8522,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="24" t="s">
         <v>110</v>
       </c>
@@ -8485,7 +8543,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="26" t="s">
         <v>112</v>
       </c>
@@ -8497,14 +8555,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F61" s="8" t="s">
         <v>125</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F62" s="4" t="s">
         <v>117</v>
       </c>
@@ -8516,7 +8574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F63" s="4" t="s">
         <v>121</v>
       </c>
@@ -8528,7 +8586,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F64" s="4" t="s">
         <v>114</v>
       </c>
@@ -8540,7 +8598,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F65" s="4" t="s">
         <v>116</v>
       </c>
@@ -8552,7 +8610,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F66" s="4" t="s">
         <v>120</v>
       </c>
@@ -8564,7 +8622,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F67" s="6" t="s">
         <v>124</v>
       </c>
@@ -8576,7 +8634,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:9" x14ac:dyDescent="0.3">
       <c r="I69" s="17"/>
     </row>
   </sheetData>
@@ -8593,19 +8651,19 @@
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -8617,7 +8675,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
@@ -8639,7 +8697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
@@ -8651,7 +8709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
@@ -8668,7 +8726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
@@ -8698,7 +8756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
@@ -8718,7 +8776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -8744,7 +8802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
@@ -8764,7 +8822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
@@ -8789,7 +8847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
@@ -8820,7 +8878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
@@ -8839,7 +8897,7 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
@@ -8866,7 +8924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
@@ -8897,7 +8955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
@@ -8929,7 +8987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F18" s="4" t="s">
         <v>44</v>
       </c>
@@ -8950,7 +9008,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>46</v>
       </c>
@@ -8976,7 +9034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
@@ -8992,7 +9050,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -9003,7 +9061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>53</v>
       </c>
@@ -9020,7 +9078,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>55</v>
       </c>
@@ -9041,7 +9099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F24" s="4" t="s">
         <v>50</v>
       </c>
@@ -9053,7 +9111,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>57</v>
       </c>
@@ -9069,7 +9127,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
@@ -9084,7 +9142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>61</v>
       </c>
@@ -9103,7 +9161,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>64</v>
       </c>
@@ -9124,7 +9182,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -9146,7 +9204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>53</v>
       </c>
@@ -9167,7 +9225,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>55</v>
       </c>
@@ -9189,7 +9247,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F32" s="4" t="s">
         <v>70</v>
       </c>
@@ -9201,7 +9259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>71</v>
       </c>
@@ -9219,7 +9277,7 @@
       </c>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>73</v>
       </c>
@@ -9232,7 +9290,7 @@
       <c r="J34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>74</v>
       </c>
@@ -9250,7 +9308,7 @@
       <c r="H35" s="31"/>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F36" s="24" t="s">
         <v>79</v>
       </c>
@@ -9263,7 +9321,7 @@
       </c>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>77</v>
       </c>
@@ -9282,7 +9340,7 @@
       </c>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>33</v>
       </c>
@@ -9297,7 +9355,7 @@
       <c r="G38" s="34"/>
       <c r="H38" s="33"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>81</v>
       </c>
@@ -9316,7 +9374,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>83</v>
       </c>
@@ -9328,7 +9386,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>86</v>
       </c>
@@ -9346,7 +9404,7 @@
       </c>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>87</v>
       </c>
@@ -9367,7 +9425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>90</v>
       </c>
@@ -9387,7 +9445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>92</v>
       </c>
@@ -9408,7 +9466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>94</v>
       </c>
@@ -9427,7 +9485,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>96</v>
       </c>
@@ -9447,7 +9505,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>98</v>
       </c>
@@ -9466,7 +9524,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>101</v>
       </c>
@@ -9486,7 +9544,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F49" s="24" t="s">
         <v>115</v>
       </c>
@@ -9498,7 +9556,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>104</v>
       </c>
@@ -9514,7 +9572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>106</v>
       </c>
@@ -9535,7 +9593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="24" t="s">
         <v>108</v>
       </c>
@@ -9546,7 +9604,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="24" t="s">
         <v>110</v>
       </c>
@@ -9562,7 +9620,7 @@
       <c r="G53" s="9"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="26" t="s">
         <v>112</v>
       </c>
@@ -9584,7 +9642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F55" s="4" t="s">
         <v>121</v>
       </c>
@@ -9596,7 +9654,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F56" s="4" t="s">
         <v>114</v>
       </c>
@@ -9608,7 +9666,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F57" s="4" t="s">
         <v>116</v>
       </c>
@@ -9620,7 +9678,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F58" s="4" t="s">
         <v>120</v>
       </c>
@@ -9632,7 +9690,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F59" s="6" t="s">
         <v>124</v>
       </c>
@@ -9644,7 +9702,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G61" s="11"/>
     </row>
   </sheetData>
@@ -9653,6 +9711,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A0701CC1EC74147A72BE8B0F5A26E20" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ebf6d53d956cdef79e68be1560f9d67">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c2c0239c-8015-4a2b-9cb8-188eddb0c3b1" xmlns:ns4="dc17db58-7173-4b97-a5e0-4fde46d4419d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a1bf8ba571720aa4c397864da6a353f6" ns3:_="" ns4:_="">
     <xsd:import namespace="c2c0239c-8015-4a2b-9cb8-188eddb0c3b1"/>
@@ -9875,22 +9948,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1625227-AAC1-4055-9ED3-B806F9ACE344}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8004C31E-2F17-41F7-960F-5BE2F964BB20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF9EA761-7028-46DB-8CB4-D9CDAA89DDB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9907,21 +9982,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8004C31E-2F17-41F7-960F-5BE2F964BB20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1625227-AAC1-4055-9ED3-B806F9ACE344}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Hardware/24V Multiphase Buck/Research and Documentation/Datasheet Calculations.xlsx
+++ b/Hardware/24V Multiphase Buck/Research and Documentation/Datasheet Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Project-Portfolio\Hardware\24V Multiphase Buck\Research and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D78688F-D1B3-4615-B915-4C10C6342A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DAD921-234B-4D6C-89CC-593F72ECC5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6348" yWindow="1056" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{966D6099-656F-453C-A914-3EE759F28358}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{966D6099-656F-453C-A914-3EE759F28358}"/>
   </bookViews>
   <sheets>
     <sheet name="Rework" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="140">
   <si>
     <t>Frequency Selection</t>
   </si>
@@ -1156,6 +1156,31 @@
   </si>
   <si>
     <t>Common Mistakes</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>START</t>
+    </r>
+  </si>
+  <si>
+    <t>Cout_actual</t>
+  </si>
+  <si>
+    <t>ERR_actual</t>
+  </si>
+  <si>
+    <t>Cin_actual</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1371,22 +1396,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1427,8 +1441,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -3878,10 +3890,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE741F53-2FDA-44F2-913C-2CB447384AA7}">
-  <dimension ref="B4:M69"/>
+  <dimension ref="B4:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4039,7 +4051,7 @@
       <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="21">
         <v>0.9</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -4064,7 +4076,7 @@
       <c r="F12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="21">
         <v>0.3</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -4090,14 +4102,14 @@
       <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="21">
         <f>(K12*C38*(1-C38))/(G11*G12*K17)</f>
         <v>7.4588103105416415E-5</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -4121,6 +4133,13 @@
       <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="F14" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>33</v>
       </c>
@@ -4141,16 +4160,11 @@
       <c r="D15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="3"/>
       <c r="J15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K15" s="2">
-        <f>G45</f>
+        <f>G48</f>
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -4168,24 +4182,17 @@
       <c r="D16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="17">
-        <f>I17+I18</f>
-        <v>3.8420590900967597</v>
-      </c>
+      <c r="F16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K16" s="2">
-        <f>G45</f>
+        <f>G48</f>
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="L16" s="2" t="s">
@@ -4204,19 +4211,15 @@
         <v>9</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17">
-        <f>G16-G18</f>
-        <v>1.2500000000000001E-2</v>
+        <v>39</v>
+      </c>
+      <c r="G17" s="21">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="17">
-        <f>I19*C42</f>
-        <v>3.8295590900967595</v>
-      </c>
+      <c r="I17" s="17"/>
       <c r="J17" s="14" t="s">
         <v>43</v>
       </c>
@@ -4230,19 +4233,16 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18">
-        <f>G16*0.5</f>
+        <v>42</v>
+      </c>
+      <c r="G18" s="21">
+        <f>G17-G19</f>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="17">
-        <f>C42/(8*K17*G20)</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
+      <c r="I18" s="17"/>
       <c r="J18" s="14" t="s">
         <v>45</v>
       </c>
@@ -4261,18 +4261,16 @@
       <c r="C19" s="9"/>
       <c r="D19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="11">
-        <f>G17/C42</f>
-        <v>1.9584500000000005E-3</v>
+        <v>44</v>
+      </c>
+      <c r="G19" s="21">
+        <f>G17*0.5</f>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="17">
-        <v>0.6</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I19" s="17"/>
       <c r="J19" s="18" t="s">
         <v>107</v>
       </c>
@@ -4288,24 +4286,24 @@
         <v>49</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="F20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="12">
-        <f>C42/(8*K17*G18)</f>
-        <v>1.7652944140653275E-4</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="40" t="s">
+      <c r="F20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="22">
+        <f>G18/C42</f>
+        <v>1.9584500000000005E-3</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="19">
         <f>155*10^-9</f>
         <v>1.55E-7</v>
       </c>
-      <c r="L20" s="41" t="s">
+      <c r="L20" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4319,6 +4317,16 @@
       <c r="D21" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="22">
+        <f>C42/(8*K17*G19)</f>
+        <v>1.7652944140653275E-4</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
@@ -4331,11 +4339,16 @@
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="3"/>
+      <c r="F22" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="22">
+        <f>132*10^-6</f>
+        <v>1.3199999999999998E-4</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
@@ -4347,32 +4360,19 @@
       <c r="D23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23">
-        <f>K17/15</f>
-        <v>24104.000000000004</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="42" t="s">
+      <c r="F23" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="40" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24">
-        <f>G20</f>
-        <v>1.7652944140653275E-4</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J24" s="43" t="s">
+      <c r="J24" s="41" t="s">
         <v>83</v>
       </c>
       <c r="K24">
@@ -4389,14 +4389,20 @@
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="3"/>
-      <c r="F25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25">
-        <v>13.3</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>59</v>
+      <c r="F25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="3"/>
+      <c r="J25" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" s="17">
+        <f>G22*K11/C34</f>
+        <v>3.1679999999999997</v>
+      </c>
+      <c r="L25" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
@@ -4405,13 +4411,14 @@
       </c>
       <c r="D26" s="5"/>
       <c r="F26" s="4" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="G26">
-        <v>5.0000000000000001E-3</v>
+        <f>K17/15</f>
+        <v>24104.000000000004</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
@@ -4424,13 +4431,14 @@
       </c>
       <c r="D27" s="5"/>
       <c r="F27" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G27">
-        <v>2E-3</v>
+        <f>G21</f>
+        <v>1.7652944140653275E-4</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
@@ -4444,11 +4452,10 @@
         <v>6</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G28">
-        <f>0.8/K11</f>
-        <v>3.3333333333333333E-2</v>
+        <v>13.3</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>59</v>
@@ -4466,11 +4473,10 @@
         <v>3</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <f>(2*PI()*G23*G24*G25*G26)/(G27*G28)</f>
-        <v>26668.527593724786</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>3</v>
@@ -4487,14 +4493,13 @@
         <v>3</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G30">
-        <f>1/(2*PI()*G24*(K11/K13))</f>
-        <v>563.48583352370747</v>
+        <v>2E-3</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
@@ -4509,26 +4514,26 @@
         <v>3</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G31">
-        <f>1/(2*PI()*G30*G29)</f>
-        <v>1.0591027392037698E-8</v>
+        <f>0.8/K11</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F32" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G32">
-        <f>K17/2</f>
-        <v>180780.00000000003</v>
+        <f>(2*PI()*G26*G27*G28*G29)/(G30*G31)</f>
+        <v>26668.527593724786</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
@@ -4537,15 +4542,15 @@
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="3"/>
-      <c r="F33" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="10">
-        <f>1/(2*PI()*G29*G32)</f>
-        <v>3.3011914469934609E-11</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>51</v>
+      <c r="F33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33">
+        <f>1/(2*PI()*G27*(K11/K13))</f>
+        <v>563.48583352370747</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="M33" s="11"/>
     </row>
@@ -4559,6 +4564,16 @@
       <c r="D34" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="F34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34">
+        <f>1/(2*PI()*G33*G32)</f>
+        <v>1.0591027392037698E-8</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="J34" s="11"/>
       <c r="M34" s="11"/>
     </row>
@@ -4573,23 +4588,28 @@
       <c r="D35" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="31"/>
+      <c r="F35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35">
+        <f>K17/2</f>
+        <v>180780.00000000003</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F36" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="32">
-        <f>G46</f>
-        <v>9.3000000000000012E-8</v>
-      </c>
-      <c r="H36" s="33" t="s">
-        <v>30</v>
+      <c r="F36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="10">
+        <f>1/(2*PI()*G32*G35)</f>
+        <v>3.3011914469934609E-11</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="M36" s="11"/>
     </row>
@@ -4601,15 +4621,6 @@
         <v>78</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="F37" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="34">
-        <v>0.125</v>
-      </c>
-      <c r="H37" s="33" t="s">
-        <v>9</v>
-      </c>
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
@@ -4621,11 +4632,11 @@
         <v>0.58536585365853655</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="F38" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G38" s="34"/>
-      <c r="H38" s="33"/>
+      <c r="F38" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
@@ -4635,15 +4646,15 @@
         <v>0.24</v>
       </c>
       <c r="D39" s="5"/>
-      <c r="F39" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="36">
-        <f>G36/G37</f>
-        <v>7.440000000000001E-7</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>51</v>
+      <c r="F39" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="32">
+        <f>G49</f>
+        <v>9.3000000000000012E-8</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
@@ -4657,6 +4668,15 @@
       <c r="D40" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="F40" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="34">
+        <v>0.125</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
@@ -4668,11 +4688,11 @@
       <c r="D41" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="3"/>
+      <c r="F41" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" s="34"/>
+      <c r="H41" s="33"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
@@ -4685,14 +4705,15 @@
       <c r="D42" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G42" s="21">
-        <v>100</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>9</v>
+      <c r="F42" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="36">
+        <f>G39/G40</f>
+        <v>7.440000000000001E-7</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
@@ -4705,15 +4726,6 @@
       <c r="D43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" s="21">
-        <v>263</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
@@ -4726,15 +4738,11 @@
       <c r="D44" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" s="21">
-        <v>100</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="F44" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
@@ -4745,14 +4753,14 @@
         <v>9.0956496208736498E-2</v>
       </c>
       <c r="D45" s="5"/>
-      <c r="F45" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G45" s="9">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" s="21">
+        <v>100</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
@@ -4765,15 +4773,14 @@
       <c r="D46" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G46" s="22">
-        <f>93*10^-9</f>
-        <v>9.3000000000000012E-8</v>
+      <c r="F46" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="21">
+        <v>263</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
@@ -4785,15 +4792,14 @@
         <v>363.82598483494598</v>
       </c>
       <c r="D47" s="5"/>
-      <c r="F47" s="35" t="s">
-        <v>130</v>
+      <c r="F47" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="G47" s="21">
-        <f>680*10^-12</f>
-        <v>6.8000000000000003E-10</v>
-      </c>
-      <c r="H47" s="33" t="s">
-        <v>51</v>
+        <v>100</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
@@ -4805,26 +4811,26 @@
         <v>9.0956496208736498E-2</v>
       </c>
       <c r="D48" s="7"/>
-      <c r="F48" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48" s="22">
-        <f>155*10^-9</f>
-        <v>1.55E-7</v>
-      </c>
-      <c r="H48" s="33" t="s">
-        <v>51</v>
+      <c r="F48" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48" s="9">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F49" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="G49" s="21">
-        <v>5</v>
+      <c r="F49" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G49" s="22">
+        <f>93*10^-9</f>
+        <v>9.3000000000000012E-8</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
@@ -4833,14 +4839,15 @@
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="3"/>
-      <c r="F50" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="G50" s="38">
-        <v>1.3</v>
-      </c>
-      <c r="H50" s="37" t="s">
-        <v>9</v>
+      <c r="F50" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50" s="21">
+        <f>680*10^-12</f>
+        <v>6.8000000000000003E-10</v>
+      </c>
+      <c r="H50" s="33" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
@@ -4848,11 +4855,21 @@
         <v>106</v>
       </c>
       <c r="C51" s="23">
-        <f>$K$10*(($G$36*4*$K$17)+$K$19)</f>
+        <f>$K$10*(($G$39*4*$K$17)+$K$19)</f>
         <v>7.1760166400000021</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>105</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" s="22">
+        <f>155*10^-9</f>
+        <v>1.55E-7</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
@@ -4865,6 +4882,15 @@
       <c r="D52" s="25" t="s">
         <v>109</v>
       </c>
+      <c r="F52" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="G52" s="21">
+        <v>5</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="24" t="s">
@@ -4876,11 +4902,15 @@
       <c r="D53" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F53" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="3"/>
+      <c r="F53" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G53" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="H53" s="37" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="26" t="s">
@@ -4893,28 +4923,6 @@
       <c r="D54" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G54" s="21">
-        <f>0.9+$G$45</f>
-        <v>0.90410000000000001</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F55" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G55" s="21">
-        <f>30*10^-9</f>
-        <v>3.0000000000000004E-8</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
@@ -4922,37 +4930,32 @@
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="3"/>
-      <c r="F56" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G56" s="23">
-        <f>($K$13/2)^2*$G$45*$K$14</f>
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="F56" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C57" s="23">
-        <f>$K$10*(($G$36*2*$K$17)+$K$19)</f>
+        <f>$K$10*(($G$39*2*$K$17)+$K$19)</f>
         <v>3.6790083200000012</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>105</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G57" s="22">
-        <f>($K$10*$K$13/4)*($G$46*$G$54/(5.5-$G$49))+($K$10*$G$48)+($G$47*($K$10)^2)</f>
-        <v>4.2690427000000008E-5</v>
+        <v>117</v>
+      </c>
+      <c r="G57" s="21">
+        <f>0.9+$G$48</f>
+        <v>0.90410000000000001</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
@@ -4966,14 +4969,14 @@
         <v>109</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G58" s="23">
-        <f>$G$57+$G$56</f>
-        <v>0.13504269042700001</v>
+        <v>121</v>
+      </c>
+      <c r="G58" s="21">
+        <f>30*10^-9</f>
+        <v>3.0000000000000004E-8</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
@@ -4986,14 +4989,14 @@
       <c r="D59" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F59" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G59" s="27">
-        <f>($K$13/2)^2*$G$45*(1-$K$14)+$G$50*$K$13/2*$G$55*$K$17</f>
-        <v>0.20138130000000004</v>
-      </c>
-      <c r="H59" s="7" t="s">
+      <c r="F59" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G59" s="23">
+        <f>($K$13/2)^2*$G$48*$K$14</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H59" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5008,88 +5011,120 @@
       <c r="D60" s="28" t="s">
         <v>109</v>
       </c>
+      <c r="F60" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G60" s="22">
+        <f>($K$10*$K$13/4)*($G$49*$G$57/(5.5-$G$52))+($K$10*$G$51)+($G$50*($K$10)^2)</f>
+        <v>4.2690427000000008E-5</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" s="23">
+        <f>$G$60+$G$59</f>
+        <v>0.13504269042700001</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F62" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" s="27">
+        <f>($K$13/2)^2*$G$48*(1-$K$14)+$G$53*$K$13/2*$G$58*$K$17</f>
+        <v>0.20138130000000004</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F64" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F62" s="4" t="s">
+      <c r="G64" s="9"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F65" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G62" s="21">
-        <f>0.9+$G$45</f>
+      <c r="G65" s="21">
+        <f>0.9+$G$48</f>
         <v>0.90410000000000001</v>
       </c>
-      <c r="H62" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F63" s="4" t="s">
+      <c r="H65" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F66" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G63" s="21">
+      <c r="G66" s="21">
         <f>30*10^-9</f>
         <v>3.0000000000000004E-8</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H66" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F64" s="4" t="s">
+    <row r="67" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F67" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G64" s="23">
-        <f>($K$13)^2*$G$45*$K$14</f>
+      <c r="G67" s="23">
+        <f>($K$13)^2*$G$48*$K$14</f>
         <v>0.54</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H67" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F65" s="4" t="s">
+    <row r="68" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F68" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G65" s="22">
-        <f>($K$10*$K$13/2)*($G$46*$G$54/(5.5-$G$49))+($K$10*$G$48)+($G$47*($K$10)^2)</f>
+      <c r="G68" s="22">
+        <f>($K$10*$K$13/2)*($G$49*$G$57/(5.5-$G$52))+($K$10*$G$51)+($G$50*($K$10)^2)</f>
         <v>7.5482134000000013E-5</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H68" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F66" s="4" t="s">
+    <row r="69" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F69" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G66" s="23">
-        <f>G64+G65</f>
+      <c r="G69" s="23">
+        <f>G67+G68</f>
         <v>0.54007548213400003</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H69" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="67" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F67" s="6" t="s">
+      <c r="I69" s="17"/>
+    </row>
+    <row r="70" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F70" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G67" s="27">
-        <f>($K$13)^2*$G$45*(1-$K$14)+$G$50*$K$13*$G$55*$K$17</f>
+      <c r="G70" s="27">
+        <f>($K$13)^2*$G$48*(1-$K$14)+$G$53*$K$13*$G$58*$K$17</f>
         <v>0.59401260000000011</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H70" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="69" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="I69" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9711,21 +9746,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A0701CC1EC74147A72BE8B0F5A26E20" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ebf6d53d956cdef79e68be1560f9d67">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c2c0239c-8015-4a2b-9cb8-188eddb0c3b1" xmlns:ns4="dc17db58-7173-4b97-a5e0-4fde46d4419d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a1bf8ba571720aa4c397864da6a353f6" ns3:_="" ns4:_="">
     <xsd:import namespace="c2c0239c-8015-4a2b-9cb8-188eddb0c3b1"/>
@@ -9948,24 +9968,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1625227-AAC1-4055-9ED3-B806F9ACE344}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8004C31E-2F17-41F7-960F-5BE2F964BB20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF9EA761-7028-46DB-8CB4-D9CDAA89DDB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9982,4 +10000,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8004C31E-2F17-41F7-960F-5BE2F964BB20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1625227-AAC1-4055-9ED3-B806F9ACE344}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>